--- a/自动排产.xlsx
+++ b/自动排产.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="60" windowWidth="19335" windowHeight="9360" activeTab="4"/>
+    <workbookView xWindow="1980" yWindow="60" windowWidth="18450" windowHeight="9060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="元数据工艺处" sheetId="6" r:id="rId1"/>
@@ -640,15 +640,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>885824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -657,7 +657,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933949" y="2190750"/>
+          <a:off x="5172074" y="1790700"/>
           <a:ext cx="6657975" cy="3095625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -781,7 +781,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>若非个人满排班工时，则</a:t>
+            <a:t>     若非个人满排班工时，则</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -792,7 +792,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>用需排产工时减去该甩尾工位号的已排产工时，用以更新该合同号需要排班的总工时，并增加一条排班记录，合同号字段为该合同号，工位号为该工位号，排产工时为：个人满排班工时</a:t>
+            <a:t>用需排产工时减去该甩尾工位号的已排产工时，用以更新该合同号需要排班的总工时，并  增加一条排班记录，合同号字段为该合同号，工位号为该工位号，排产工时为：个人满排班工时</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -800,7 +800,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>已排产工时，排产数依照元数据工艺处</a:t>
+            <a:t>已排产工     时，排产数依照元数据工艺处</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -823,7 +823,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>若为个人满排班工时，则</a:t>
+            <a:t>    若为个人满排班工时，则</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2589,7 +2589,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2674,7 +2674,7 @@
         <v>218.35294117647061</v>
       </c>
       <c r="E3">
-        <f>C3/24</f>
+        <f t="shared" ref="E3:E9" si="0">C3/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
         <v>218.35294117647061</v>
       </c>
       <c r="E4">
-        <f>C4/24</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
         <v>218.35294117647061</v>
       </c>
       <c r="E5">
-        <f>C5/24</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J5" s="28">
@@ -2738,7 +2738,7 @@
         <v>218.35294117647061</v>
       </c>
       <c r="E6">
-        <f>C6/24</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J6" s="28">
@@ -2762,7 +2762,7 @@
         <v>218.35294117647061</v>
       </c>
       <c r="E7">
-        <f>C7/24</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
         <v>218.35294117647061</v>
       </c>
       <c r="E8">
-        <f>C8/24</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
         <v>85.227125954823535</v>
       </c>
       <c r="E9">
-        <f>C9/24</f>
+        <f t="shared" si="0"/>
         <v>0.130106065125</v>
       </c>
     </row>

--- a/自动排产.xlsx
+++ b/自动排产.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="60" windowWidth="18450" windowHeight="9060" activeTab="4"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="110">
   <si>
     <t>合同号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -433,6 +433,14 @@
   </si>
   <si>
     <t>排产件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.mdb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,6 +641,10 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,6 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1476,6 +1489,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1632,6 +1646,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1893,10 +1908,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2586,10 +2602,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2606,7 +2623,7 @@
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" customHeight="1">
+    <row r="1" spans="1:12" ht="45.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2640,8 +2657,14 @@
       <c r="J1" s="20">
         <v>42736</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1">
+      <c r="K1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2658,7 +2681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="12" t="str">
         <f>B1</f>
         <v>JJ0001</v>
@@ -2678,7 +2701,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="29" t="str">
         <f>B1</f>
         <v>JJ0001</v>
@@ -2698,7 +2721,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="29" t="str">
         <f>B1</f>
         <v>JJ0001</v>
@@ -2717,12 +2740,9 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J5" s="28">
-        <f>J1+1.5</f>
-        <v>42737.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="29" t="str">
         <f>B1</f>
         <v>JJ0001</v>
@@ -2741,12 +2761,9 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J6" s="28">
-        <f>J1+E3</f>
-        <v>42736.333333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="29" t="str">
         <f>B1</f>
         <v>JJ0001</v>
@@ -2766,7 +2783,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="29" t="str">
         <f>B1</f>
         <v>JJ0001</v>
@@ -2786,7 +2803,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="29" t="str">
         <f>B1</f>
         <v>JJ0001</v>
@@ -2806,31 +2823,31 @@
         <v>0.130106065125</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="B10" s="24"/>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="B11" s="24"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="B12" s="24"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="B13" s="24"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="B14" s="24"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="B15" s="24"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="B16" s="24"/>
       <c r="C16" s="26"/>
     </row>
@@ -2845,5 +2862,9 @@
     <ignoredError sqref="B3 B4 B5:B9" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <control shapeId="4097" r:id="rId3" name="btnPaiChan"/>
+  </controls>
 </worksheet>
 </file>
--- a/自动排产.xlsx
+++ b/自动排产.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="101">
   <si>
     <t>合同号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -380,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工位号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同号对应模具数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,48 +388,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压蜡需排产自然件数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>需排产工时</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排产工时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排产件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据库</t>
@@ -442,6 +402,10 @@
   <si>
     <t>db.mdb</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压蜡序交货期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -613,9 +577,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -632,6 +593,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2606,14 +2570,14 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
+    <col min="1" max="1" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
@@ -2631,240 +2595,122 @@
         <f>根据合同号的总数据通算!B1</f>
         <v>JJ0001</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>98</v>
+      <c r="C1" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="D1" s="17">
         <f>根据合同号的总数据通算!B3</f>
         <v>5940</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" s="18">
         <f>根据合同号的总数据通算!C3</f>
         <v>217.62931034482756</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H1" s="19">
         <v>10</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="20">
         <v>42736</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="12" t="str">
-        <f>B1</f>
-        <v>JJ0001</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="26">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <f>C3/元数据工艺处!D2</f>
-        <v>218.35294117647061</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">C3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="29" t="str">
-        <f>B1</f>
-        <v>JJ0001</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="26">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <f>C4/元数据工艺处!D2</f>
-        <v>218.35294117647061</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="A4" s="28"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="29" t="str">
-        <f>B1</f>
-        <v>JJ0001</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="26">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <f>C5/元数据工艺处!D2</f>
-        <v>218.35294117647061</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="29" t="str">
-        <f>B1</f>
-        <v>JJ0001</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="26">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <f>C6/元数据工艺处!D2</f>
-        <v>218.35294117647061</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J6" s="28"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="29" t="str">
-        <f>B1</f>
-        <v>JJ0001</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="26">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f>C7/元数据工艺处!D2</f>
-        <v>218.35294117647061</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="A7" s="28"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="29" t="str">
-        <f>B1</f>
-        <v>JJ0001</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="26">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <f>C8/元数据工艺处!D2</f>
-        <v>218.35294117647061</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="A8" s="28"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="29" t="str">
-        <f>B1</f>
-        <v>JJ0001</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="26">
-        <v>3.1225455630000001</v>
-      </c>
-      <c r="D9">
-        <f>C9/元数据工艺处!D2</f>
-        <v>85.227125954823535</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.130106065125</v>
-      </c>
+      <c r="A9" s="28"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="24"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="24"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="24"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B3 B4 B5:B9" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="4097" r:id="rId3" name="btnPaiChan"/>
+    <control shapeId="4097" r:id="rId4" name="btnPaiChan"/>
   </controls>
 </worksheet>
 </file>